--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>子弹资源</t>
   </si>
   <si>
-    <t>速度</t>
+    <t>范围大小</t>
   </si>
   <si>
     <t>持续时间</t>
@@ -321,7 +321,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -523,11 +523,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -537,20 +532,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -579,7 +560,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,24 +750,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,31 +1023,31 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1890,7 +1853,7 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
   <si>
     <t>角色ID</t>
   </si>
@@ -77,7 +77,10 @@
     <t>子弹资源</t>
   </si>
   <si>
-    <t>范围大小</t>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>技能动作</t>
   </si>
   <si>
     <t>持续时间</t>
@@ -86,6 +89,9 @@
     <t>间隔时间</t>
   </si>
   <si>
+    <t>击中时间</t>
+  </si>
+  <si>
     <t>BUFF</t>
   </si>
   <si>
@@ -167,12 +173,18 @@
     <t>AOERange</t>
   </si>
   <si>
+    <t>SkillAnim</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
     <t xml:space="preserve">Interval </t>
   </si>
   <si>
+    <t>HitTimes</t>
+  </si>
+  <si>
     <t>Buff</t>
   </si>
   <si>
@@ -200,6 +212,12 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Atk A</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
     <t>冲锋突刺</t>
   </si>
   <si>
@@ -212,6 +230,9 @@
     <t>Skill</t>
   </si>
   <si>
+    <t>Skill A</t>
+  </si>
+  <si>
     <t>[1,2]</t>
   </si>
   <si>
@@ -227,6 +248,9 @@
     <t>None</t>
   </si>
   <si>
+    <t>Skill B</t>
+  </si>
+  <si>
     <t>[3]</t>
   </si>
   <si>
@@ -239,6 +263,12 @@
     <t>UI/Skill/warrior_skill_03</t>
   </si>
   <si>
+    <t>Skill C</t>
+  </si>
+  <si>
+    <t>[0.9]</t>
+  </si>
+  <si>
     <t>UI/Skill/wizzard_skill_00</t>
   </si>
   <si>
@@ -251,6 +281,9 @@
     <t>UI/Skill/wizzard_skill_01</t>
   </si>
   <si>
+    <t>[0.6]</t>
+  </si>
+  <si>
     <t>火焰雨</t>
   </si>
   <si>
@@ -278,6 +311,9 @@
     <t>UI/Skill/archer_skill_00</t>
   </si>
   <si>
+    <t>[0.8]</t>
+  </si>
+  <si>
     <t>流血箭</t>
   </si>
   <si>
@@ -309,6 +345,9 @@
   </si>
   <si>
     <t>UI/Skill/archer_skill_03</t>
+  </si>
+  <si>
+    <t>[0.6,1.25,2.0]</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1205,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1418,6 +1457,23 @@
         <strike val="0"/>
         <u val="none"/>
         <sz val="9"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1436,6 +1492,23 @@
         <u val="none"/>
         <sz val="9"/>
         <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1531,9 +1604,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:X15" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:X15" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Z15" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Z15" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="26">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="23" name="Key2" dataDxfId="1"/>
     <tableColumn id="3" name="ID" dataDxfId="2"/>
@@ -1551,13 +1624,15 @@
     <tableColumn id="10" name="BulletSpeed" dataDxfId="14"/>
     <tableColumn id="2" name="BulletResource" dataDxfId="15"/>
     <tableColumn id="6" name="AOERange" dataDxfId="16"/>
-    <tableColumn id="28" name="Duration" dataDxfId="17"/>
-    <tableColumn id="29" name="Interval " dataDxfId="18"/>
-    <tableColumn id="30" name="Buff" dataDxfId="19"/>
-    <tableColumn id="12" name="AD" dataDxfId="20"/>
-    <tableColumn id="13" name="AP" dataDxfId="21"/>
-    <tableColumn id="22" name="ADFator" dataDxfId="22"/>
-    <tableColumn id="21" name="APFator" dataDxfId="23"/>
+    <tableColumn id="14" name="SkillAnim" dataDxfId="17"/>
+    <tableColumn id="28" name="Duration" dataDxfId="18"/>
+    <tableColumn id="29" name="Interval " dataDxfId="19"/>
+    <tableColumn id="15" name="HitTimes" dataDxfId="20"/>
+    <tableColumn id="30" name="Buff" dataDxfId="21"/>
+    <tableColumn id="12" name="AD" dataDxfId="22"/>
+    <tableColumn id="13" name="AP" dataDxfId="23"/>
+    <tableColumn id="22" name="ADFator" dataDxfId="24"/>
+    <tableColumn id="21" name="APFator" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1850,10 +1925,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1868,14 +1943,14 @@
     <col min="8" max="8" width="17.1388888888889" style="4" customWidth="1"/>
     <col min="9" max="11" width="19.8518518518519" style="4" customWidth="1"/>
     <col min="16" max="16" width="19.8518518518519" customWidth="1"/>
-    <col min="17" max="17" width="15.5740740740741" style="5" customWidth="1"/>
-    <col min="18" max="18" width="14.1388888888889" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.5740740740741" style="5" customWidth="1"/>
-    <col min="20" max="20" width="24" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="16.287037037037" style="6"/>
+    <col min="17" max="18" width="15.5740740740741" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.1388888888889" style="5" customWidth="1"/>
+    <col min="20" max="21" width="13.5740740740741" style="5" customWidth="1"/>
+    <col min="22" max="22" width="24" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="16.287037037037" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1948,150 +2023,168 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="3:24">
+    <row r="2" spans="3:26">
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>26</v>
+      <c r="U2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:23">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2102,23 +2195,23 @@
         <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -2135,14 +2228,20 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="2:23">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="2:25">
       <c r="B5" s="1">
         <v>102</v>
       </c>
@@ -2150,25 +2249,25 @@
         <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -2185,20 +2284,23 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="R5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="1">
         <v>60</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="2:23">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="2:25">
       <c r="B6" s="1">
         <v>103</v>
       </c>
@@ -2206,22 +2308,22 @@
         <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2239,28 +2341,31 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="1">
-        <v>2</v>
-      </c>
-      <c r="R6" s="1">
+        <v>300</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="1">
         <v>3.5</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0.8</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="1">
         <v>80</v>
       </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>104</v>
@@ -2269,25 +2374,25 @@
         <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -2304,20 +2409,26 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="6">
+      <c r="U7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="6">
         <v>100</v>
       </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="13.2" spans="1:24">
+    <row r="8" s="2" customFormat="1" ht="13.2" spans="1:26">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2328,23 +2439,23 @@
         <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J8" s="12">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="12">
         <v>0</v>
@@ -2359,17 +2470,23 @@
         <v>1</v>
       </c>
       <c r="O8" s="15">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="X8" s="2">
+      <c r="R8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="13.2" spans="2:24">
+    <row r="9" s="2" customFormat="1" ht="13.2" spans="2:26">
       <c r="B9" s="2">
         <v>202</v>
       </c>
@@ -2377,25 +2494,25 @@
         <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J9" s="12">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="12">
         <v>1</v>
@@ -2412,17 +2529,23 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="R9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>80</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Z9" s="2">
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="13.2" spans="2:24">
+    <row r="10" s="2" customFormat="1" ht="13.2" spans="2:26">
       <c r="B10" s="2">
         <v>203</v>
       </c>
@@ -2430,25 +2553,25 @@
         <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J10" s="12">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="12">
         <v>1.2</v>
@@ -2463,25 +2586,28 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="2">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2">
+        <v>500</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="2">
         <v>3.5</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>0.8</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
         <v>100</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Z10" s="2">
         <v>0.16667</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="13.2" spans="2:24">
+    <row r="11" s="2" customFormat="1" ht="13.2" spans="2:26">
       <c r="B11" s="2">
         <v>204</v>
       </c>
@@ -2489,25 +2615,25 @@
         <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J11" s="12">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="K11" s="12">
         <v>0</v>
@@ -2524,20 +2650,23 @@
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="R11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
         <v>140</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Z11" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="13.2" spans="1:23">
+    <row r="12" s="3" customFormat="1" ht="13.2" spans="1:25">
       <c r="A12" s="13">
         <v>3</v>
       </c>
@@ -2548,23 +2677,23 @@
         <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J12" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -2579,17 +2708,23 @@
         <v>1</v>
       </c>
       <c r="O12" s="16">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="W12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="13.2" spans="1:23">
+    <row r="13" s="3" customFormat="1" ht="13.2" spans="1:25">
       <c r="A13" s="13"/>
       <c r="B13" s="3">
         <v>302</v>
@@ -2598,25 +2733,25 @@
         <v>302</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J13" s="13">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="13">
         <v>1</v>
@@ -2627,26 +2762,36 @@
       <c r="M13" s="13">
         <v>15</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="N13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="16">
+        <v>800</v>
+      </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" s="3">
+      <c r="R13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="3">
         <v>70</v>
       </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="13.2" spans="1:23">
+    <row r="14" s="3" customFormat="1" ht="13.2" spans="1:25">
       <c r="A14" s="13"/>
       <c r="B14" s="3">
         <v>303</v>
@@ -2655,25 +2800,25 @@
         <v>303</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" s="13">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="K14" s="13">
         <v>1.2</v>
@@ -2688,22 +2833,28 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="3">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" s="3">
+        <v>500</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" s="3">
         <v>80</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>0.16667</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="13.2" spans="1:23">
+    <row r="15" s="3" customFormat="1" ht="13.2" spans="1:25">
       <c r="A15" s="13"/>
       <c r="B15" s="3">
         <v>304</v>
@@ -2712,25 +2863,25 @@
         <v>304</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H15" s="3">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J15" s="13">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="K15" s="13">
         <v>1.5</v>
@@ -2745,19 +2896,25 @@
         <v>1</v>
       </c>
       <c r="O15" s="16">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W15" s="3">
         <v>70</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>0.2</v>
       </c>
     </row>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>角色ID</t>
   </si>
@@ -1603,6 +1603,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Z15" totalsRowShown="0">
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Z15" etc:filterBottomFollowUsedRange="0"/>
@@ -1927,8 +1934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -2197,7 +2204,9 @@
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="F4" s="9" t="s">
         <v>58</v>
       </c>
@@ -2441,7 +2450,9 @@
       <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="12" t="s">
         <v>80</v>
       </c>
@@ -2679,7 +2690,9 @@
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F12" s="13" t="s">
         <v>93</v>
       </c>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
+    <workbookView windowWidth="21096" windowHeight="9815" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1934,8 +1934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -2897,7 +2897,7 @@
         <v>800</v>
       </c>
       <c r="K15" s="13">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="L15" s="13">
         <v>12</v>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="21096" windowHeight="9815" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
   <si>
     <t>角色ID</t>
   </si>
@@ -1934,8 +1934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -2204,9 +2204,7 @@
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
         <v>58</v>
       </c>
@@ -2240,9 +2238,13 @@
       <c r="R4" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1">
         <v>0</v>
       </c>
@@ -2296,6 +2298,9 @@
       <c r="R5" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2361,6 +2366,7 @@
       <c r="T6" s="1">
         <v>0.8</v>
       </c>
+      <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>74</v>
       </c>
@@ -2450,9 +2456,7 @@
       <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
         <v>80</v>
       </c>
@@ -2490,9 +2494,15 @@
       <c r="R8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2">
         <v>1</v>
       </c>
@@ -2543,15 +2553,19 @@
       <c r="R9" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="V9" s="2"/>
       <c r="W9" s="2">
         <v>0</v>
       </c>
       <c r="X9" s="2">
         <v>80</v>
       </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2">
         <v>0.125</v>
       </c>
@@ -2608,12 +2622,15 @@
       <c r="T10" s="2">
         <v>0.8</v>
       </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="2">
         <v>100</v>
       </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2">
         <v>0.16667</v>
       </c>
@@ -2664,6 +2681,9 @@
       <c r="R11" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
         <v>92</v>
       </c>
@@ -2673,6 +2693,7 @@
       <c r="X11" s="2">
         <v>140</v>
       </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2">
         <v>0.25</v>
       </c>
@@ -2690,9 +2711,7 @@
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
         <v>93</v>
       </c>
@@ -2730,9 +2749,14 @@
       <c r="R12" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="3">
         <v>1</v>
       </c>
@@ -2788,6 +2812,8 @@
       <c r="R13" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3" t="s">
         <v>94</v>
       </c>
@@ -2851,6 +2877,8 @@
       <c r="R14" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
         <v>94</v>
       </c>
@@ -2897,7 +2925,7 @@
         <v>800</v>
       </c>
       <c r="K15" s="13">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="L15" s="13">
         <v>12</v>
@@ -2918,9 +2946,12 @@
       <c r="R15" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="V15" s="3"/>
       <c r="W15" s="3">
         <v>70</v>
       </c>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -56,7 +56,7 @@
     <t>施法目标</t>
   </si>
   <si>
-    <t>释放范围</t>
+    <t>最远释放距离</t>
   </si>
   <si>
     <t>施法时间</t>
@@ -77,7 +77,7 @@
     <t>子弹资源</t>
   </si>
   <si>
-    <t>速度</t>
+    <t>技能范围</t>
   </si>
   <si>
     <t>技能动作</t>
@@ -1934,8 +1934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -179,7 +179,7 @@
     <t>Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Interval </t>
+    <t>Interval</t>
   </si>
   <si>
     <t>HitTimes</t>
@@ -1633,7 +1633,7 @@
     <tableColumn id="6" name="AOERange" dataDxfId="16"/>
     <tableColumn id="14" name="SkillAnim" dataDxfId="17"/>
     <tableColumn id="28" name="Duration" dataDxfId="18"/>
-    <tableColumn id="29" name="Interval " dataDxfId="19"/>
+    <tableColumn id="29" name="Interval" dataDxfId="19"/>
     <tableColumn id="15" name="HitTimes" dataDxfId="20"/>
     <tableColumn id="30" name="Buff" dataDxfId="21"/>
     <tableColumn id="12" name="AD" dataDxfId="22"/>
@@ -1934,8 +1934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="159">
   <si>
     <t>角色ID</t>
   </si>
@@ -107,6 +107,12 @@
     <t>法术攻击系数</t>
   </si>
   <si>
+    <t>区域效果</t>
+  </si>
+  <si>
+    <t>击中效果</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -200,6 +206,12 @@
     <t>APFator</t>
   </si>
   <si>
+    <t>AOEEffect</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
     <t>普通攻击</t>
   </si>
   <si>
@@ -218,6 +230,9 @@
     <t>[0.4]</t>
   </si>
   <si>
+    <t>EFX_Warrior_Behurt_prefab</t>
+  </si>
+  <si>
     <t>冲锋突刺</t>
   </si>
   <si>
@@ -272,6 +287,12 @@
     <t>UI/Skill/wizzard_skill_00</t>
   </si>
   <si>
+    <t>EFX_Wizard_AtkA_Bullet_prefab</t>
+  </si>
+  <si>
+    <t>EFX_Wizard_AttkA_hit_prefab</t>
+  </si>
+  <si>
     <t>火球术</t>
   </si>
   <si>
@@ -281,9 +302,15 @@
     <t>UI/Skill/wizzard_skill_01</t>
   </si>
   <si>
+    <t>EFX_Wizard_SkillA_Bullet_prefab</t>
+  </si>
+  <si>
     <t>[0.6]</t>
   </si>
   <si>
+    <t>EFX_Wizard_SkillA_Hit_prefab</t>
+  </si>
+  <si>
     <t>火焰雨</t>
   </si>
   <si>
@@ -296,6 +323,9 @@
     <t>Position</t>
   </si>
   <si>
+    <t>EFX_Wizard_SkillB_bullet_perfab</t>
+  </si>
+  <si>
     <t>火焰冲击</t>
   </si>
   <si>
@@ -311,9 +341,15 @@
     <t>UI/Skill/archer_skill_00</t>
   </si>
   <si>
+    <t>EFX_Archer_AtkA_B_dandao_prefab</t>
+  </si>
+  <si>
     <t>[0.8]</t>
   </si>
   <si>
+    <t>EFX_Archer_AtkA_B_Behurt_prefab</t>
+  </si>
+  <si>
     <t>流血箭</t>
   </si>
   <si>
@@ -338,6 +374,9 @@
     <t>[6]</t>
   </si>
   <si>
+    <t>EFX_Archer_SkillB_behurt_prefab</t>
+  </si>
+  <si>
     <t>连射</t>
   </si>
   <si>
@@ -348,6 +387,123 @@
   </si>
   <si>
     <t>[0.6,1.25,2.0]</t>
+  </si>
+  <si>
+    <t>恶鬼横向挥动手中的斧子进行攻击</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>旋风横扫</t>
+  </si>
+  <si>
+    <t>恶鬼360度横向挥动斧子，对周围的敌人造成一次AOE伤害</t>
+  </si>
+  <si>
+    <t>SkillA</t>
+  </si>
+  <si>
+    <t>拳击挥打</t>
+  </si>
+  <si>
+    <t>石头人向敌人挥动右拳进行攻击然后马上用继续挥动左掌进行攻击</t>
+  </si>
+  <si>
+    <t>[0.6,1.0]</t>
+  </si>
+  <si>
+    <t>大地震击</t>
+  </si>
+  <si>
+    <t>石头人高举双手锤向地面，对周围8码内敌人造成一次AOE伤害</t>
+  </si>
+  <si>
+    <t>[0.52]</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
+    <t>石头人挥动右手重重砸下目标使目标受到巨额伤害</t>
+  </si>
+  <si>
+    <t>SkillB</t>
+  </si>
+  <si>
+    <t>叉击</t>
+  </si>
+  <si>
+    <t>小恶魔挥动手中的三头叉对敌人进行攻击</t>
+  </si>
+  <si>
+    <t>旋转叉击</t>
+  </si>
+  <si>
+    <t>小恶魔旋转一圈以获得巨大的冲力并向前刺出三头叉对敌人进行攻击</t>
+  </si>
+  <si>
+    <t>挥砍</t>
+  </si>
+  <si>
+    <t>骷髅兵挥动手中的短剑对敌人进行攻击</t>
+  </si>
+  <si>
+    <t>[0.5]</t>
+  </si>
+  <si>
+    <t>重砍</t>
+  </si>
+  <si>
+    <t>骷髅兵高高举起手中的短剑，对敌人进行蓄力一击</t>
+  </si>
+  <si>
+    <t>[1.5]</t>
+  </si>
+  <si>
+    <t>挥击</t>
+  </si>
+  <si>
+    <t>死神挥动右爪，向敌人发起攻击</t>
+  </si>
+  <si>
+    <t>EFX_M1005_AtkA_hit_prefab</t>
+  </si>
+  <si>
+    <t>死亡尖叫</t>
+  </si>
+  <si>
+    <t>死神发出恐怖的尖叫，对周围8码内敌人造成一次AOE伤害</t>
+  </si>
+  <si>
+    <t>鬼影背刺</t>
+  </si>
+  <si>
+    <t>死神突然消失，随机选中一个敌人并出现在它身后发起致命一击</t>
+  </si>
+  <si>
+    <t>[1.0]</t>
+  </si>
+  <si>
+    <t>死亡飞弹</t>
+  </si>
+  <si>
+    <t>死神右爪聚集大量死气，形成死亡飞弹，并将飞弹砸向敌人进行攻击</t>
+  </si>
+  <si>
+    <t>EFX_M1005_SkillC_dandao</t>
+  </si>
+  <si>
+    <t>SkillC</t>
+  </si>
+  <si>
+    <t>[0.7]</t>
+  </si>
+  <si>
+    <t>EFX_M1005_SkillC_hit</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1138,7 +1294,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1367,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1593,6 +1755,36 @@
       </fill>
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1611,9 +1803,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Z15" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Z15" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB15" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:AB15" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="28">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="23" name="Key2" dataDxfId="1"/>
     <tableColumn id="3" name="ID" dataDxfId="2"/>
@@ -1640,6 +1832,8 @@
     <tableColumn id="13" name="AP" dataDxfId="23"/>
     <tableColumn id="22" name="ADFator" dataDxfId="24"/>
     <tableColumn id="21" name="APFator" dataDxfId="25"/>
+    <tableColumn id="16" name="AOEEffect" dataDxfId="26"/>
+    <tableColumn id="17" name="HitEffect" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1932,10 +2126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1949,15 +2143,18 @@
     <col min="7" max="7" width="19.8518518518519" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.1388888888889" style="4" customWidth="1"/>
     <col min="9" max="11" width="19.8518518518519" style="4" customWidth="1"/>
-    <col min="16" max="16" width="19.8518518518519" customWidth="1"/>
+    <col min="16" max="16" width="32.8888888888889" customWidth="1"/>
     <col min="17" max="18" width="15.5740740740741" style="5" customWidth="1"/>
     <col min="19" max="19" width="14.1388888888889" style="5" customWidth="1"/>
     <col min="20" max="21" width="13.5740740740741" style="5" customWidth="1"/>
     <col min="22" max="22" width="24" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="16.287037037037" style="6"/>
+    <col min="23" max="26" width="16.287037037037" style="6"/>
+    <col min="27" max="27" width="35.2222222222222" style="6" customWidth="1"/>
+    <col min="28" max="28" width="37.5555555555556" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="16.287037037037" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2036,162 +2233,180 @@
       <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="3:26">
+    <row r="2" spans="3:28">
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="Y2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="R3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="S3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="T3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="U3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="V3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="W3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="X3" s="18" t="s">
         <v>56</v>
       </c>
+      <c r="Y3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:25">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:28">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2202,20 +2417,20 @@
         <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1">
         <v>200</v>
@@ -2236,12 +2451,12 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -2251,6 +2466,9 @@
       <c r="Y4" s="1">
         <v>1</v>
       </c>
+      <c r="AB4" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="13.2" spans="2:25">
       <c r="B5" s="1">
@@ -2260,22 +2478,22 @@
         <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1">
         <v>1200</v>
@@ -2296,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="W5" s="1">
         <v>60</v>
@@ -2322,22 +2540,22 @@
         <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2358,7 +2576,7 @@
         <v>300</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S6" s="1">
         <v>3.5</v>
@@ -2368,7 +2586,7 @@
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="W6" s="1">
         <v>80</v>
@@ -2380,7 +2598,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>104</v>
@@ -2389,22 +2607,22 @@
         <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4">
         <v>1000</v>
@@ -2425,12 +2643,12 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="6">
@@ -2442,8 +2660,10 @@
       <c r="Y7" s="1">
         <v>0.2</v>
       </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="13.2" spans="1:26">
+    <row r="8" s="2" customFormat="1" ht="13.2" spans="1:28">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2454,20 +2674,20 @@
         <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="12">
         <v>1000</v>
@@ -2487,17 +2707,19 @@
       <c r="O8" s="15">
         <v>800</v>
       </c>
-      <c r="P8" s="15"/>
+      <c r="P8" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2506,8 +2728,12 @@
       <c r="Z8" s="2">
         <v>1</v>
       </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="13.2" spans="2:26">
+    <row r="9" s="2" customFormat="1" ht="13.2" spans="2:28">
       <c r="B9" s="2">
         <v>202</v>
       </c>
@@ -2515,28 +2741,28 @@
         <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" s="12">
         <v>1000</v>
       </c>
       <c r="K9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="12">
         <v>3</v>
@@ -2546,17 +2772,19 @@
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2">
@@ -2569,8 +2797,12 @@
       <c r="Z9" s="2">
         <v>0.125</v>
       </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="13.2" spans="2:26">
+    <row r="10" s="2" customFormat="1" ht="13.2" spans="2:27">
       <c r="B10" s="2">
         <v>203</v>
       </c>
@@ -2578,22 +2810,22 @@
         <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J10" s="12">
         <v>1200</v>
@@ -2614,7 +2846,7 @@
         <v>500</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S10" s="2">
         <v>3.5</v>
@@ -2634,8 +2866,11 @@
       <c r="Z10" s="2">
         <v>0.16667</v>
       </c>
+      <c r="AA10" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="13.2" spans="2:26">
+    <row r="11" s="2" customFormat="1" ht="13.2" spans="2:28">
       <c r="B11" s="2">
         <v>204</v>
       </c>
@@ -2643,22 +2878,22 @@
         <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J11" s="12">
         <v>800</v>
@@ -2679,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W11" s="2">
         <v>0</v>
@@ -2697,8 +2932,12 @@
       <c r="Z11" s="2">
         <v>0.25</v>
       </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="13.2" spans="1:25">
+    <row r="12" s="3" customFormat="1" ht="13.2" spans="1:28">
       <c r="A12" s="13">
         <v>3</v>
       </c>
@@ -2709,20 +2948,20 @@
         <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J12" s="13">
         <v>1000</v>
@@ -2742,17 +2981,19 @@
       <c r="O12" s="16">
         <v>800</v>
       </c>
-      <c r="P12" s="16"/>
+      <c r="P12" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2760,8 +3001,11 @@
       <c r="Y12" s="3">
         <v>1</v>
       </c>
+      <c r="AB12" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="13.2" spans="1:25">
+    <row r="13" s="3" customFormat="1" ht="13.2" spans="1:28">
       <c r="A13" s="13"/>
       <c r="B13" s="3">
         <v>302</v>
@@ -2770,28 +3014,28 @@
         <v>302</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J13" s="13">
         <v>1000</v>
       </c>
       <c r="K13" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="13">
         <v>8</v>
@@ -2805,20 +3049,22 @@
       <c r="O13" s="16">
         <v>800</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="Q13" s="3">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="W13" s="3">
         <v>70</v>
@@ -2829,8 +3075,11 @@
       <c r="Y13" s="3">
         <v>0.125</v>
       </c>
+      <c r="AB13" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="13.2" spans="1:25">
+    <row r="14" s="3" customFormat="1" ht="13.2" spans="1:28">
       <c r="A14" s="13"/>
       <c r="B14" s="3">
         <v>303</v>
@@ -2839,22 +3088,22 @@
         <v>303</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J14" s="13">
         <v>1200</v>
@@ -2875,15 +3124,15 @@
         <v>500</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="W14" s="3">
         <v>80</v>
@@ -2894,8 +3143,14 @@
       <c r="Y14" s="3">
         <v>0.16667</v>
       </c>
+      <c r="AA14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="13.2" spans="1:25">
+    <row r="15" s="3" customFormat="1" ht="13.2" spans="1:28">
       <c r="A15" s="13"/>
       <c r="B15" s="3">
         <v>304</v>
@@ -2904,28 +3159,28 @@
         <v>304</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J15" s="13">
         <v>800</v>
       </c>
       <c r="K15" s="13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="13">
         <v>12</v>
@@ -2939,17 +3194,19 @@
       <c r="O15" s="16">
         <v>800</v>
       </c>
-      <c r="P15" s="16"/>
+      <c r="P15" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3">
@@ -2960,6 +3217,684 @@
       </c>
       <c r="Y15" s="3">
         <v>0.2</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="4">
+        <v>200</v>
+      </c>
+      <c r="L16" s="17">
+        <v>3</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10012</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="4">
+        <v>200</v>
+      </c>
+      <c r="L17" s="17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="19">
+        <v>300</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10021</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10021</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="4">
+        <v>300</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" s="1">
+        <v>10022</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10022</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="4">
+        <v>300</v>
+      </c>
+      <c r="L19" s="17">
+        <v>4</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="19">
+        <v>800</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" s="1">
+        <v>10023</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10023</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="4">
+        <v>300</v>
+      </c>
+      <c r="L20" s="17">
+        <v>7</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10031</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10031</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="4">
+        <v>150</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" s="1">
+        <v>10032</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10032</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="4">
+        <v>150</v>
+      </c>
+      <c r="L22" s="17">
+        <v>6</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10041</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10041</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="4">
+        <v>150</v>
+      </c>
+      <c r="L23" s="17">
+        <v>3</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="B24" s="1">
+        <v>10042</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10042</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="4">
+        <v>150</v>
+      </c>
+      <c r="L24" s="17">
+        <v>6</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10051</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10051</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="4">
+        <v>200</v>
+      </c>
+      <c r="L25" s="17">
+        <v>3</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" s="1">
+        <v>10052</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10052</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="4">
+        <v>600</v>
+      </c>
+      <c r="L26" s="17">
+        <v>10</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="19">
+        <v>800</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="1">
+        <v>10053</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10053</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="17">
+        <v>15</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="1">
+        <v>10054</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10054</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1200</v>
+      </c>
+      <c r="L28" s="17">
+        <v>20</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="16">
+        <v>800</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -2128,8 +2128,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -2762,7 +2762,7 @@
         <v>1000</v>
       </c>
       <c r="K9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="12">
         <v>3</v>
@@ -2770,8 +2770,12 @@
       <c r="M9" s="12">
         <v>20</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="N9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>800</v>
+      </c>
       <c r="P9" s="12" t="s">
         <v>91</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>1200</v>
       </c>
       <c r="K10" s="12">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12">
         <v>12</v>
@@ -2899,7 +2903,7 @@
         <v>800</v>
       </c>
       <c r="K11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="12">
         <v>7</v>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
+    <workbookView windowWidth="21096" windowHeight="9815" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -1803,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB15" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:AB15" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AB28" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:AB28" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="28">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="23" name="Key2" dataDxfId="1"/>
@@ -2128,8 +2128,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V6" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="21096" windowHeight="9815" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -2128,8 +2128,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V6" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -2436,7 +2436,7 @@
         <v>200</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
@@ -2499,7 +2499,7 @@
         <v>1200</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="1">
         <v>8</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="9">
         <v>7</v>
@@ -2627,8 +2627,8 @@
       <c r="J7" s="4">
         <v>1000</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
+      <c r="K7" s="1">
+        <v>2.5</v>
       </c>
       <c r="L7" s="9">
         <v>12</v>
@@ -2693,7 +2693,7 @@
         <v>1000</v>
       </c>
       <c r="K8" s="12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L8" s="12">
         <v>3</v>
@@ -2838,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M10" s="12">
         <v>30</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M11" s="12">
         <v>25</v>
@@ -2971,7 +2971,7 @@
         <v>1000</v>
       </c>
       <c r="K12" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="13">
         <v>3</v>

--- a/Src/Data/Tables/SkillDefine.xlsx
+++ b/Src/Data/Tables/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
+    <workbookView windowWidth="10668" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="158">
   <si>
     <t>角色ID</t>
   </si>
@@ -248,6 +248,9 @@
     <t>Skill A</t>
   </si>
   <si>
+    <t>[0.7]</t>
+  </si>
+  <si>
     <t>[1,2]</t>
   </si>
   <si>
@@ -281,7 +284,7 @@
     <t>Skill C</t>
   </si>
   <si>
-    <t>[0.9]</t>
+    <t>[0.8]</t>
   </si>
   <si>
     <t>UI/Skill/wizzard_skill_00</t>
@@ -290,6 +293,9 @@
     <t>EFX_Wizard_AtkA_Bullet_prefab</t>
   </si>
   <si>
+    <t>[0.6]</t>
+  </si>
+  <si>
     <t>EFX_Wizard_AttkA_hit_prefab</t>
   </si>
   <si>
@@ -305,9 +311,6 @@
     <t>EFX_Wizard_SkillA_Bullet_prefab</t>
   </si>
   <si>
-    <t>[0.6]</t>
-  </si>
-  <si>
     <t>EFX_Wizard_SkillA_Hit_prefab</t>
   </si>
   <si>
@@ -344,9 +347,6 @@
     <t>EFX_Archer_AtkA_B_dandao_prefab</t>
   </si>
   <si>
-    <t>[0.8]</t>
-  </si>
-  <si>
     <t>EFX_Archer_AtkA_B_Behurt_prefab</t>
   </si>
   <si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>SkillC</t>
-  </si>
-  <si>
-    <t>[0.7]</t>
   </si>
   <si>
     <t>EFX_M1005_SkillC_hit</t>
@@ -2128,8 +2125,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -2433,10 +2430,10 @@
         <v>64</v>
       </c>
       <c r="J4" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K4" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
@@ -2499,7 +2496,7 @@
         <v>1200</v>
       </c>
       <c r="K5" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>8</v>
@@ -2518,9 +2515,11 @@
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="V5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" s="1">
         <v>60</v>
@@ -2532,7 +2531,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="2:25">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="2:28">
       <c r="B6" s="1">
         <v>103</v>
       </c>
@@ -2540,13 +2539,13 @@
         <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>71</v>
@@ -2555,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="9">
         <v>7</v>
@@ -2573,20 +2572,20 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="T6" s="1">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" s="1">
         <v>80</v>
@@ -2596,6 +2595,9 @@
       </c>
       <c r="Y6" s="1">
         <v>0.125</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2607,13 +2609,13 @@
         <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>71</v>
@@ -2628,7 +2630,7 @@
         <v>1000</v>
       </c>
       <c r="K7" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="9">
         <v>12</v>
@@ -2643,12 +2645,12 @@
         <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="6">
@@ -2661,7 +2663,9 @@
         <v>0.2</v>
       </c>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="13.2" spans="1:28">
       <c r="A8" s="2">
@@ -2678,7 +2682,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>63</v>
@@ -2693,7 +2697,7 @@
         <v>1000</v>
       </c>
       <c r="K8" s="12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="12">
         <v>3</v>
@@ -2708,7 +2712,7 @@
         <v>800</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2719,7 +2723,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2730,7 +2734,7 @@
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="13.2" spans="2:28">
@@ -2741,13 +2745,13 @@
         <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>71</v>
@@ -2777,7 +2781,7 @@
         <v>800</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2788,7 +2792,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2">
@@ -2803,7 +2807,7 @@
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="13.2" spans="2:27">
@@ -2814,13 +2818,13 @@
         <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>71</v>
@@ -2829,7 +2833,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" s="12">
         <v>1200</v>
@@ -2850,13 +2854,13 @@
         <v>500</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" s="2">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="T10" s="2">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -2871,7 +2875,7 @@
         <v>0.16667</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="13.2" spans="2:28">
@@ -2882,13 +2886,13 @@
         <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>71</v>
@@ -2918,13 +2922,15 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="V11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W11" s="2">
         <v>0</v>
@@ -2938,7 +2944,7 @@
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="13.2" spans="1:28">
@@ -2956,7 +2962,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>63</v>
@@ -2986,7 +2992,7 @@
         <v>800</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -2997,7 +3003,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -3054,7 +3060,7 @@
         <v>800</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
@@ -3065,7 +3071,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>110</v>
@@ -3107,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J14" s="13">
         <v>1200</v>
@@ -3128,12 +3134,12 @@
         <v>500</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>114</v>
@@ -3199,13 +3205,13 @@
         <v>800</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -3299,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" s="4">
         <v>200</v>
@@ -3402,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
         <v>300</v>
@@ -3471,7 +3477,7 @@
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="1"/>
@@ -3572,7 +3578,7 @@
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="1"/>
@@ -3759,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" s="4">
         <v>600</v>
@@ -3887,7 +3893,7 @@
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="1"/>
@@ -3898,7 +3904,7 @@
         <v>3</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
